--- a/Testdata/TC_43.xlsx
+++ b/Testdata/TC_43.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ER0AAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlUrK9axtjBrrZESpZhiTX67wUI3JssR6SKmdoW28pkCBFmqIoik2RXtGnFAW6XbQJkO728i/B2rt96i/0zIU3Sc6a7sJYc85tzjlzbjNG71z71LgkEfPCYK9Sr1kVgwRO6HrB+V4l5mfV+qPKOzbqXjuEHuEI+4QDsQFcAdu9Zt5eZcb5fNc0r66ualcbtTA6NxuWVTefDPpjZ0Z8XPUCxnHgkErK5b6dq2KjtusPCMcu5lhx7lV6416tTTynA7ABDvA5iWqtmHkBYawbcI97hAnOiGBO2p3B95RhdqP2qFZH5go8o2zFHnUVXYFSwTUdbEsmnk/shlXfrlrb1Y36xNrZbTze3dqqbdSt9xLGlBD1MeNjEl16jgSMOfbnkt3aBoadxuOtLWSuJQJZmQNsNKTuiFx6jLhtQikr5RFTH2DT4WB1OWdayMzxakEPV+EgwvPZxOOUlFNjNGgZfqB1yYTYaD+MiAP+e5BKh+RqGGm3TuZ9wE5mXsQXHbwoLeuYkWg4F04qx2qjThjwJiURP57DWRMXQgEQNo9igsw7kBlTx2MOfHtBTFz7DFOWZyog0UkYXbA5dsgh5LEpZFwFNMQuBBz3GPecbNMVBDqKwjlIhM1bIXX3QaomXoNIJfcCcLHYthWGF5l265BInqo8XzhTH/OEfAWOxrPwahjQxTieMifypsTttBLqtTgkElJzt2PGQx+0yEBIwXKQBfyDBFwGow5xPB/TIwpOZPYGSCkAUDPm4ZnH2yGN/YAlOi1B0QlYNCHXqYXpGg3hcAPh9DDoBUtS1uKKHKPwKjnCVbh0Qg7cZE5y3KuIZeIOwJLjW8XIExFW7nsU+kP+LHLQYlSMZ4TwtSGhMEiUwn3RcewmpcjMlgjCEkIb1LAtaBpV+TOxrF35A9umaNQN3LvpEiQ6jP3hFNL3Uhpk1wG3BEJgAm1RHFwA9MTjs8NmovoaDFIG30m/ikOQqHOKFxKcOiUPQ73AobFLVP73gjMZkUI3dYZ3otEKqA8pbSMcLCaLOZRh5u1y+NirQGPeZTyC1l+xnTAOeLQQhQKZmvRtPCyeBnIDTO/NcxaRH8YwcSz248Bph+79d3OVd44Dj99fwzCOVPW7P4v0niiEMesQUVJkjb83v1PGJhaVIvcD4oeB59zf2+Bkob37AENYklX35iAqv+5NT6GNqy4ncv3ebBGMi9DXSm3TZCx0PBmsOj3cHL95R8p0yBmOKYxqHDrqeVqYl8GoyS6WafIgdBzRpODZYhBmMAk7rl9zYFYQ017NCX0BMGEAPRkjM08vBh6HdIPzPg7OYxgp0rqyDE/LrWiHkwgHTJiTThBLlXc9EUrqlJps7NVih8wlEjQh/jyMMB2AT7x9HXF6MoKhY4D5TK+giVHiJP41M9aUq6hUovPbyGQ7UhaIXNcVcgkoiUR8qnE7o8lgSJg4gIykbUy9aaQKatK01+HgrLIxMCm9wriSI2HifrhyQZ/9LlmIOTxbaLiM1nqCULEraqg9Hm1uN7asjQbMMGKNpMUjgqnRhTzmxOgFl4RxH9h2jRFhngtfHqa7xrtkSjzof9JFugOV5s7zof2kxEtVmqBvEVIkgMni3IMOskqYYjIG+5TgiC5yhMrUfugA3e2P/33zm+evXnx++/HTN19+8N9//OrVP3928+xD+Lj9699uPvmlMlMRowmeUiIVmrS2t62NTYizFISEc005BLuxwyXs9FTOvuka6SucXLS7vfZBvyVLSQpM2FU3McXtcBHG2XKsjJAbySM1k0hQJPYkKU16XcDmupMtbmuXpEidx9/FqHzx+uXnr1/++U5u7bBszKrv7GxV6423TmFw762v0KVTWL9Q/gXxZtXaqjYaOeIlGjRStT/1U8+1xbXaamxY9bSMu2kgryNaRmlJE3xuLvEpUFtNRmkI5NcJUgb+BFIkRatUyC10iH75kzd/eVqg0t7VkKIUUE5OMGIzM1lI0YejiTEeHo/aXWPSHYs4yXA5OiX8G4j17mk+FYIqCGJMv2NAX4c+ZlTg7lMxwjODYGdmLCATc3lYCLZ1ULXRA0Uua3kQhfFcnUiOIYOuoUyryVqONbVG4qQ/V4pOhlpDrnS9+fsX6xi0IZ1slk1fOvIwVMAoUA6vs/azf7366qNXL17cPv/5zVc/KkjQ+6QPABDnkE35ZRr2UPJ0v1mCoJOxdOaF9f1cf9FAcYc6Cr2AM7v+SF6f9AoBa11Ik79Rz4eWJwVLfwF8CYLexax7zXVi24fILAJAzzmGbhtmt8wUoGp45tf//PZ3t7/+4vbT528++tPNx3+8+eTT1y9//+bZH1TW3T59fvvTZ7rKLzcCqYu4u6r5z5AvIY4hstEQvdv4+v1fGEHIDRg5jFhWpK/f/ywnTCgqh5NMMkxzqSJFFVZI88yCz8ipkupQ4EtZ1ADQFi1sI6XQTSyce062yXtVIUrknUR8qzepxowYIUxT3wZLisQZ8335NItqqUePrUa9obFKG2HCFLOc6w9oOIUhI0HIp4YlkgLXNzNktHK/g/6w1exnJEqJYeSSSISh+kDJSClaSo8lqyTUchDAwuDnxFS8Dq2QraJSybkyZupnlrOmK8rf+leKAgVqx1GkBqJAv9qP4zkMw8lj3N14+UCZm38P1ayan4izda9TxMM6h4VGWEQLgMTL0qRRqkz1mHjRUePsoXBNtgRc4VET3KEf5tWkdQlzZWSKutONojBaW3wyTEI2gEkaKoqZeTylkWeqpm43O6sEkBS89ENd+rSFYYdQwsu9WpsZ9yC8fDAvnH1Z1h4bUlc7s9zVI3VLJiD/dC8C5f99uVfB1owiGKzEU1/pp/bkzjqCq25JbZQpklHcAGF3/Ra+70WMPxGVQH8pyGkKOVUT6hN7s6Hm0CcKcCpuYOpDG6mlmwU1k9Tl6g8oIe17vlfyWmgl+V0UAr6cz9UI1ysXKaK1HJJrGDBzEqAoTn8AbUM9oZSRpgIWamnKL54tmXc+42UVezzFxCVTq+pMSaO66Vrb1R1CNqr1OvyPnUbDsrbEo6cWDpXDI1clNzGTA8v+sGn/D7pm67wRHQAA</t>
+          <t>Ch8AAB+LCAAAAAAAAAOlWVtvI7cV/isDPbVA5ZmRL2sb9ASyJG+EypZhyfU6LwU1Q9msqRl1yLGttxRIkCJNURTFpkiv6FOKAt0u2gRId3v5L8Hau33qX+jhZW6SnPW4CwM7PDceHh6e85FC71xPmHVJYk6jcKfmrjg1i4R+FNDwbKeWiHHd3ai946HOtU/YIY7xhAgQtkAr5NvXnO7UzoWYbtv21dXVytXqShSf2Q3Hce0n+72Bf04muE5DLnDok1qmFbxdq+ahVjDZJwIHWGCtuVPrDrorLUL9NtD2cYjPSLyym3AaEs47oaCCEi41Y4IFabX3v6cX5jVWNlZcZC/Qc8ndhLJAy5UkNd3IwbRkSCfEazgNp+5s1htrQ9fZdta33a0V1914L1XMBFEPczEg8SX1FWEg8GSq1J3NxprrOOvuFrKXCoGtPAAe6rPgiFxSToIWYYxXiohtNrDpC1h1tWA6yC7oGkMPd+FxjKfnQyoYqaq+F8XEh0A9aO4DctWPTfyG0x5wh+c0FrM2nlW2dcxJ3J/KaFRT9VA7CkWTkVgcT2FTSQB7DgxPxAlB9h3MXKlNuQ/fNExI4I0x40WlEhOdRPEFn2KfHMCBtaWNq5BFOIDMEpQL6ueTLjDQYRxNwSJMvhuxYA+sGuEljMxyN4QQy2l3o+gi924ZE6kcUNkAezrBIhVfoKPBeXTVD9lskIy4H9MRCdq7qfRSHpInz2i3Ei6iCXiRk5CmFSgz+AcnbZ6M2sSnE8wOGQSRe6tgpURAzUREYypaEUsmIU99mqOiE1jRkFxnK8zGqA+bG8qgR2E3nLOylFfWOIqu0i1cpKsgFMhN7qfbvciYF24DLd2+RY7aEbnKPcqgERT3okAtZ8XgnBCxNCU0B8matydbi9dkDNn5EEFaQmqDG54D3aGu/oYOVFz5B9NmbNQJg7vlUiY6SCb9ERzfS7UgzwXeHAnBEtguw+EFUE+oOD9opq4v4SC94DvlF3kIDuqU4ZkiZ0Ep0lA39FkSEH3+u+FYZaT0Te/hnWy0QOrBkfYQDmfD2RTqLafbAj52atCBt7mIocfXPD9KQhHPZKFAthF9mw5PRqGaALN764xj8sMEoMVsLwn9VhTcf7ZAR+c4pOL+HkZJrKvf/VVU9GQhTHibyJKiavy99f0qa+JxJfFJSCZRSP37RxuCLL0PHrAQnp6qe2sQfb7uLc+gjesuJ8/6vdViwIXQ1ypN0+Q88qlKVnM8goK+fceRaZMxThhgMgEd9SwrzPNk1OQX8zJFEjqOWVrwPIl4OUBeP5is+IAVJKxb8aOJJNiANE8GyC7KS8Djk0541sPhWQKQIqsr8/Ss3Mp2OIxxyOVyMgQxV3mXC6G0Tmlk4y0WO2TPiaAhmUyjGLN9iAndMxlnkBGAjn0szs0ImhgjfhpfO1fNtMpOpT6/TUy1I70CedZNhZwjKiGZnxpX5zI5Dckl7sOJZC3M6CjWBTVt2st4sFc5DExLr1xcRUiYhh/uVtBnv0tmEnDnA0NX2eqmDJ27soZ6g6O1zca6s9oADCPHSK34iGBmdeAcC2J1w0vCxQTUtq0jwmkAXxSzbetdMiIU+p8KkelAlbWLemgvLfHKlSb4W6aUBQBZnFHoIIuCGSdX8E4JjtmsIKiX2ot8kLv98b9vfvP81YvPbz9++ubLD/77j1+9+ufPbp59CB+3f/3bzSe/1MvUwmiIR4woh4a7m5vO6hrkWUZCMri2AsFB4gtFOz1V2DcbI3NXU4NWp9t63NtVpSQjpuq6m9jyGjiLknw40ItQE6kttdNM0CLeMC1NZlziFrqTJ69ll6QsXeTfpahj8frl569f/vlObROwHGa5W1vrdbfxVhTWcFx3QS5DYb1S+ZfCa3Vnvd5oFITnZNCRrv1ZnLqBt+o6W05j1XGzMh5kibxMaJ5lLA3xmT2np0ktjYyyFCiOU6ZK/CEckYytj0JhYFL0y5+8+cvTkpSJrqGUrYBzCsHIyex0oEwfHA2tQf/4qNWxhp2BzJOcV5DTxr9B2MyenadSUoVhgtl3LOjr0MesGtx9alY0tgj2z60ZnMTCOSwl2zKqnuiBJue9fBxHyVTvSEEhpy6RzKrJUo0ltUbxVDwXik7OWiKufb35+xfLFMxC2jmW9Y72d61JmOWloqESR5MKfHNqP/vXq68+evXixe3zn9989aOSBTNP9gAAeQ6nqTjM0h5Knuk3cxR0MlDBvHC+X+gvhijvUIcRDQX33A11fTIjBKqutKb+R90JtDxlWMUL6HMU9C7mnWthDrZ3gOwyAfycYui2UX7LzAi6hudx/c9vf3f76y9uP33+5qM/3Xz8x5tPPn398vdvnv1Bn7rbp89vf/rMVPn5RqB8kXdXjf8s9RLiW/I0WrJ3W1+//wsrjIQFkMNKVEX6+v3PCsakowqc5JYBzWWOlF1YEC0qSz2r4ErmQ0kvU9EAoCVb2GomYZpYNKV+Psl7dWlKnjvF+FZ3WE84sSJAU9+GlZSFc+X76hkV3VIPHzkNt2G42hu5hBHmhdA/ZtEIQEbKUE8NcyIlrW9WyGXVfI97/d1mLxfRTvTjgMQyDfUH6vIUVKbpVaAAF8CenzD5IrQgtshC6VehdNnmaWXcDGTJW/4yUZJArSSONQgKzZP8IJkCAE4f4O7mq0fJAuY90Pi0iILzcbdd5sO4wIXmV2ZLguKrcmRYujR1uXzF0RD2QIYmHwKv9JAJ4TCv7hpdXQKWjG1ZazpxHMVLC07OScX2AT1DFbHziGcytpxSI+0g36uUkBa57ENf9MwKozZhRFR+kk6196PLB+vC3ldV7fI+C0wwq103srDkBorv8jJRqjrTjGOATfIhr/JDeo+GF91qq/c2Ro9G7vrGxobvr/rOCI/9dd8nzuYWDsZrwSMAjsqovH1KE/LmIu9u1SYBsFhWz6/YR3DprmhNB1gpyrsoREodSFPYszHaozEXT2SJMl+acppRTjV0fuKtNTRAfqIJp9Jh/WF+rDGT2SWv0/oi9E84EevRCa14X3XSIlQ2AmkwnWpsWXVDoecdkGtAvgULUK1HP4B+pt92qljTpwqKfKaf2hoko8rm7FT5EPgysR6m3QkAlz1cW/0gQtn/4YBCXg810Q05PTsXVfe1sbW1SjZIo94Y+359DQZ16MajeoDHW67jjFeD9YZ8zDbGoTtQclVxEtlTKId7RXU9e+4Xbe9/YTY+4wofAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -464,7 +464,7 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -734,4 +734,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>2</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>2</EndRow>
+          <EndCol>43</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A357B07-323B-49B3-96BC-A3D290FF9D44}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_43.xlsx
+++ b/Testdata/TC_43.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Ch8AAB+LCAAAAAAAAAOlWVtvI7cV/isDPbVA5ZmRL2sb9ASyJG+EypZhyfU6LwU1Q9msqRl1yLGttxRIkCJNURTFpkiv6FOKAt0u2gRId3v5L8Hau33qX+jhZW6SnPW4CwM7PDceHh6e85FC71xPmHVJYk6jcKfmrjg1i4R+FNDwbKeWiHHd3ai946HOtU/YIY7xhAgQtkAr5NvXnO7UzoWYbtv21dXVytXqShSf2Q3Hce0n+72Bf04muE5DLnDok1qmFbxdq+ahVjDZJwIHWGCtuVPrDrorLUL9NtD2cYjPSLyym3AaEs47oaCCEi41Y4IFabX3v6cX5jVWNlZcZC/Qc8ndhLJAy5UkNd3IwbRkSCfEazgNp+5s1htrQ9fZdta33a0V1914L1XMBFEPczEg8SX1FWEg8GSq1J3NxprrOOvuFrKXCoGtPAAe6rPgiFxSToIWYYxXiohtNrDpC1h1tWA6yC7oGkMPd+FxjKfnQyoYqaq+F8XEh0A9aO4DctWPTfyG0x5wh+c0FrM2nlW2dcxJ3J/KaFRT9VA7CkWTkVgcT2FTSQB7DgxPxAlB9h3MXKlNuQ/fNExI4I0x40WlEhOdRPEFn2KfHMCBtaWNq5BFOIDMEpQL6ueTLjDQYRxNwSJMvhuxYA+sGuEljMxyN4QQy2l3o+gi924ZE6kcUNkAezrBIhVfoKPBeXTVD9lskIy4H9MRCdq7qfRSHpInz2i3Ei6iCXiRk5CmFSgz+AcnbZ6M2sSnE8wOGQSRe6tgpURAzUREYypaEUsmIU99mqOiE1jRkFxnK8zGqA+bG8qgR2E3nLOylFfWOIqu0i1cpKsgFMhN7qfbvciYF24DLd2+RY7aEbnKPcqgERT3okAtZ8XgnBCxNCU0B8matydbi9dkDNn5EEFaQmqDG54D3aGu/oYOVFz5B9NmbNQJg7vlUiY6SCb9ERzfS7UgzwXeHAnBEtguw+EFUE+oOD9opq4v4SC94DvlF3kIDuqU4ZkiZ0Ep0lA39FkSEH3+u+FYZaT0Te/hnWy0QOrBkfYQDmfD2RTqLafbAj52atCBt7mIocfXPD9KQhHPZKFAthF9mw5PRqGaALN764xj8sMEoMVsLwn9VhTcf7ZAR+c4pOL+HkZJrKvf/VVU9GQhTHibyJKiavy99f0qa+JxJfFJSCZRSP37RxuCLL0PHrAQnp6qe2sQfb7uLc+gjesuJ8/6vdViwIXQ1ypN0+Q88qlKVnM8goK+fceRaZMxThhgMgEd9SwrzPNk1OQX8zJFEjqOWVrwPIl4OUBeP5is+IAVJKxb8aOJJNiANE8GyC7KS8Djk0541sPhWQKQIqsr8/Ss3Mp2OIxxyOVyMgQxV3mXC6G0Tmlk4y0WO2TPiaAhmUyjGLN9iAndMxlnkBGAjn0szs0ImhgjfhpfO1fNtMpOpT6/TUy1I70CedZNhZwjKiGZnxpX5zI5Dckl7sOJZC3M6CjWBTVt2st4sFc5DExLr1xcRUiYhh/uVtBnv0tmEnDnA0NX2eqmDJ27soZ6g6O1zca6s9oADCPHSK34iGBmdeAcC2J1w0vCxQTUtq0jwmkAXxSzbetdMiIU+p8KkelAlbWLemgvLfHKlSb4W6aUBQBZnFHoIIuCGSdX8E4JjtmsIKiX2ot8kLv98b9vfvP81YvPbz9++ubLD/77j1+9+ufPbp59CB+3f/3bzSe/1MvUwmiIR4woh4a7m5vO6hrkWUZCMri2AsFB4gtFOz1V2DcbI3NXU4NWp9t63NtVpSQjpuq6m9jyGjiLknw40ItQE6kttdNM0CLeMC1NZlziFrqTJ69ll6QsXeTfpahj8frl569f/vlObROwHGa5W1vrdbfxVhTWcFx3QS5DYb1S+ZfCa3Vnvd5oFITnZNCRrv1ZnLqBt+o6W05j1XGzMh5kibxMaJ5lLA3xmT2np0ktjYyyFCiOU6ZK/CEckYytj0JhYFL0y5+8+cvTkpSJrqGUrYBzCsHIyex0oEwfHA2tQf/4qNWxhp2BzJOcV5DTxr9B2MyenadSUoVhgtl3LOjr0MesGtx9alY0tgj2z60ZnMTCOSwl2zKqnuiBJue9fBxHyVTvSEEhpy6RzKrJUo0ltUbxVDwXik7OWiKufb35+xfLFMxC2jmW9Y72d61JmOWloqESR5MKfHNqP/vXq68+evXixe3zn9989aOSBTNP9gAAeQ6nqTjM0h5Knuk3cxR0MlDBvHC+X+gvhijvUIcRDQX33A11fTIjBKqutKb+R90JtDxlWMUL6HMU9C7mnWthDrZ3gOwyAfycYui2UX7LzAi6hudx/c9vf3f76y9uP33+5qM/3Xz8x5tPPn398vdvnv1Bn7rbp89vf/rMVPn5RqB8kXdXjf8s9RLiW/I0WrJ3W1+//wsrjIQFkMNKVEX6+v3PCsakowqc5JYBzWWOlF1YEC0qSz2r4ErmQ0kvU9EAoCVb2GomYZpYNKV+Psl7dWlKnjvF+FZ3WE84sSJAU9+GlZSFc+X76hkV3VIPHzkNt2G42hu5hBHmhdA/ZtEIQEbKUE8NcyIlrW9WyGXVfI97/d1mLxfRTvTjgMQyDfUH6vIUVKbpVaAAF8CenzD5IrQgtshC6VehdNnmaWXcDGTJW/4yUZJArSSONQgKzZP8IJkCAE4f4O7mq0fJAuY90Pi0iILzcbdd5sO4wIXmV2ZLguKrcmRYujR1uXzF0RD2QIYmHwKv9JAJ4TCv7hpdXQKWjG1ZazpxHMVLC07OScX2AT1DFbHziGcytpxSI+0g36uUkBa57ENf9MwKozZhRFR+kk6196PLB+vC3ldV7fI+C0wwq103srDkBorv8jJRqjrTjGOATfIhr/JDeo+GF91qq/c2Ro9G7vrGxobvr/rOCI/9dd8nzuYWDsZrwSMAjsqovH1KE/LmIu9u1SYBsFhWz6/YR3DprmhNB1gpyrsoREodSFPYszHaozEXT2SJMl+acppRTjV0fuKtNTRAfqIJp9Jh/WF+rDGT2SWv0/oi9E84EevRCa14X3XSIlQ2AmkwnWpsWXVDoecdkGtAvgULUK1HP4B+pt92qljTpwqKfKaf2hoko8rm7FT5EPgysR6m3QkAlz1cW/0gQtn/4YBCXg810Q05PTsXVfe1sbW1SjZIo94Y+359DQZ16MajeoDHW67jjFeD9YZ8zDbGoTtQclVxEtlTKId7RXU9e+4Xbe9/YTY+4wofAAA=</t>
+          <t>ER0AAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlUrK9axtjBrrZESpZhiTX67wUI3JssR6SKmdoW28pkCBFmqIoik2RXtGnFAW6XbQJkO728i/B2rt96i/0zIU3Sc6a7sJYc85tzjlzbjNG71z71LgkEfPCYK9Sr1kVgwRO6HrB+V4l5mfV+qPKOzbqXjuEHuEI+4QDsQFcAdu9Zt5eZcb5fNc0r66ualcbtTA6NxuWVTefDPpjZ0Z8XPUCxnHgkErK5b6dq2KjtusPCMcu5lhx7lV6416tTTynA7ABDvA5iWqtmHkBYawbcI97hAnOiGBO2p3B95RhdqP2qFZH5go8o2zFHnUVXYFSwTUdbEsmnk/shlXfrlrb1Y36xNrZbTze3dqqbdSt9xLGlBD1MeNjEl16jgSMOfbnkt3aBoadxuOtLWSuJQJZmQNsNKTuiFx6jLhtQikr5RFTH2DT4WB1OWdayMzxakEPV+EgwvPZxOOUlFNjNGgZfqB1yYTYaD+MiAP+e5BKh+RqGGm3TuZ9wE5mXsQXHbwoLeuYkWg4F04qx2qjThjwJiURP57DWRMXQgEQNo9igsw7kBlTx2MOfHtBTFz7DFOWZyog0UkYXbA5dsgh5LEpZFwFNMQuBBz3GPecbNMVBDqKwjlIhM1bIXX3QaomXoNIJfcCcLHYthWGF5l265BInqo8XzhTH/OEfAWOxrPwahjQxTieMifypsTttBLqtTgkElJzt2PGQx+0yEBIwXKQBfyDBFwGow5xPB/TIwpOZPYGSCkAUDPm4ZnH2yGN/YAlOi1B0QlYNCHXqYXpGg3hcAPh9DDoBUtS1uKKHKPwKjnCVbh0Qg7cZE5y3KuIZeIOwJLjW8XIExFW7nsU+kP+LHLQYlSMZ4TwtSGhMEiUwn3RcewmpcjMlgjCEkIb1LAtaBpV+TOxrF35A9umaNQN3LvpEiQ6jP3hFNL3Uhpk1wG3BEJgAm1RHFwA9MTjs8NmovoaDFIG30m/ikOQqHOKFxKcOiUPQ73AobFLVP73gjMZkUI3dYZ3otEKqA8pbSMcLCaLOZRh5u1y+NirQGPeZTyC1l+xnTAOeLQQhQKZmvRtPCyeBnIDTO/NcxaRH8YwcSz248Bph+79d3OVd44Dj99fwzCOVPW7P4v0niiEMesQUVJkjb83v1PGJhaVIvcD4oeB59zf2+Bkob37AENYklX35iAqv+5NT6GNqy4ncv3ebBGMi9DXSm3TZCx0PBmsOj3cHL95R8p0yBmOKYxqHDrqeVqYl8GoyS6WafIgdBzRpODZYhBmMAk7rl9zYFYQ017NCX0BMGEAPRkjM08vBh6HdIPzPg7OYxgp0rqyDE/LrWiHkwgHTJiTThBLlXc9EUrqlJps7NVih8wlEjQh/jyMMB2AT7x9HXF6MoKhY4D5TK+giVHiJP41M9aUq6hUovPbyGQ7UhaIXNcVcgkoiUR8qnE7o8lgSJg4gIykbUy9aaQKatK01+HgrLIxMCm9wriSI2HifrhyQZ/9LlmIOTxbaLiM1nqCULEraqg9Hm1uN7asjQbMMGKNpMUjgqnRhTzmxOgFl4RxH9h2jRFhngtfHqa7xrtkSjzof9JFugOV5s7zof2kxEtVmqBvEVIkgMni3IMOskqYYjIG+5TgiC5yhMrUfugA3e2P/33zm+evXnx++/HTN19+8N9//OrVP3928+xD+Lj9699uPvmlMlMRowmeUiIVmrS2t62NTYizFISEc005BLuxwyXs9FTOvuka6SucXLS7vfZBvyVLSQpM2FU3McXtcBHG2XKsjJAbySM1k0hQJPYkKU16XcDmupMtbmuXpEidx9/FqHzx+uXnr1/++U5u7bBszKrv7GxV6423TmFw762v0KVTWL9Q/gXxZtXaqjYaOeIlGjRStT/1U8+1xbXaamxY9bSMu2kgryNaRmlJE3xuLvEpUFtNRmkI5NcJUgb+BFIkRatUyC10iH75kzd/eVqg0t7VkKIUUE5OMGIzM1lI0YejiTEeHo/aXWPSHYs4yXA5OiX8G4j17mk+FYIqCGJMv2NAX4c+ZlTg7lMxwjODYGdmLCATc3lYCLZ1ULXRA0Uua3kQhfFcnUiOIYOuoUyryVqONbVG4qQ/V4pOhlpDrnS9+fsX6xi0IZ1slk1fOvIwVMAoUA6vs/azf7366qNXL17cPv/5zVc/KkjQ+6QPABDnkE35ZRr2UPJ0v1mCoJOxdOaF9f1cf9FAcYc6Cr2AM7v+SF6f9AoBa11Ik79Rz4eWJwVLfwF8CYLexax7zXVi24fILAJAzzmGbhtmt8wUoGp45tf//PZ3t7/+4vbT528++tPNx3+8+eTT1y9//+bZH1TW3T59fvvTZ7rKLzcCqYu4u6r5z5AvIY4hstEQvdv4+v1fGEHIDRg5jFhWpK/f/ywnTCgqh5NMMkxzqSJFFVZI88yCz8ipkupQ4EtZ1ADQFi1sI6XQTSyce062yXtVIUrknUR8qzepxowYIUxT3wZLisQZ8335NItqqUePrUa9obFKG2HCFLOc6w9oOIUhI0HIp4YlkgLXNzNktHK/g/6w1exnJEqJYeSSSISh+kDJSClaSo8lqyTUchDAwuDnxFS8Dq2QraJSybkyZupnlrOmK8rf+leKAgVqx1GkBqJAv9qP4zkMw8lj3N14+UCZm38P1ayan4izda9TxMM6h4VGWEQLgMTL0qRRqkz1mHjRUePsoXBNtgRc4VET3KEf5tWkdQlzZWSKutONojBaW3wyTEI2gEkaKoqZeTylkWeqpm43O6sEkBS89ENd+rSFYYdQwsu9WpsZ9yC8fDAvnH1Z1h4bUlc7s9zVI3VLJiD/dC8C5f99uVfB1owiGKzEU1/pp/bkzjqCq25JbZQpklHcAGF3/Ra+70WMPxGVQH8pyGkKOVUT6hN7s6Hm0CcKcCpuYOpDG6mlmwU1k9Tl6g8oIe17vlfyWmgl+V0UAr6cz9UI1ysXKaK1HJJrGDBzEqAoTn8AbUM9oZSRpgIWamnKL54tmXc+42UVezzFxCVTq+pMSaO66Vrb1R1CNqr1OvyPnUbDsrbEo6cWDpXDI1clNzGTA8v+sGn/D7pm67wRHQAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -464,7 +464,7 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -734,37 +734,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>2</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>2</EndRow>
-          <EndCol>43</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A357B07-323B-49B3-96BC-A3D290FF9D44}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>